--- a/biology/Médecine/Rapport_Piel-Roelandt/Rapport_Piel-Roelandt.xlsx
+++ b/biology/Médecine/Rapport_Piel-Roelandt/Rapport_Piel-Roelandt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport Piel-Roelandt est un rapport de mission ministériel français publié en juillet 2001, réalisé par les Docteurs Éric Piel et Jean-Luc Roelandt intitulé De la psychiatrie vers la santé mentale. Il a été commandé par le ministre de l'emploi et de la Solidarité de l'époque, Martine Aubry puis poursuivi par Élisabeth Guigou, ainsi que la secrétaire d'État à la santé et aux handicapés, Dominique Gillot, et confirmé par le docteur Bernard Kouchner, alors ministre délégué à la santé, afin d'établir un état des lieux de la santé mentale en France.
 </t>
@@ -511,9 +523,11 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rapport de quatre-vingt six pages dresse un état des lieux de la santé mentale en France[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rapport de quatre-vingt six pages dresse un état des lieux de la santé mentale en France :
 Planification complexe et outils d'aide à la décision inadaptés.
 Politique de sectorisation non menée à son terme.
 Un système de soins psychiatrique fonctionnant à plusieurs vitesses.
@@ -556,7 +570,9 @@
           <t>Axes de réflexion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les droits de l'Homme et du citoyen sont inaliénables y compris pour les personnes atteintes de troubles psychiques.
 Justice et psychiatrie, prison et hôpital, enfermement et soins ne peuvent être confondus.
@@ -590,7 +606,9 @@
           <t>Changements proposés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Favoriser la parole et le pouvoir des utilisateurs des services.
 Développer toute structure dans la cité.
